--- a/config/TestConfiguration.xlsx
+++ b/config/TestConfiguration.xlsx
@@ -59,12 +59,15 @@
     <t>Headless</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Parallel</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Parallel</t>
-  </si>
-  <si>
     <t>Workers</t>
   </si>
   <si>
@@ -81,9 +84,6 @@
   </si>
   <si>
     <t>Pass_Screenshot</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t>Mail</t>
@@ -129,7 +129,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,13 +157,6 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -687,146 +680,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1236,7 +1229,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1294,13 +1287,13 @@
         <v>11</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="8">
         <v>2</v>
@@ -1309,16 +1302,16 @@
     <row r="7" spans="1:3">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="8">
         <v>300</v>
@@ -1327,7 +1320,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="8">
         <v>25</v>
@@ -1336,10 +1329,10 @@
     <row r="10" spans="1:3">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1350,7 +1343,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3">
